--- a/varMATRIX.xlsx
+++ b/varMATRIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E38EB0-B8E1-9D42-861A-430E8259E0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6E989209-6F60-F542-82F4-88C5A09D3854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="800" windowWidth="28040" windowHeight="15760"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="514">
   <si>
     <t>observation_id</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>Tillina sp</t>
   </si>
   <si>
-    <t xml:space="preserve">community </t>
-  </si>
-  <si>
     <t>Rotaria sp</t>
   </si>
   <si>
@@ -1630,13 +1627,16 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Manduca_sexta</t>
+  </si>
+  <si>
+    <t>individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1796,6 +1796,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2141,11 +2148,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2504,9 +2512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N192" sqref="N192"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U297" sqref="U297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8484,8 +8492,8 @@
       <c r="T74" t="s">
         <v>43</v>
       </c>
-      <c r="U74" t="s">
-        <v>149</v>
+      <c r="U74" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V74">
         <v>20</v>
@@ -8558,8 +8566,8 @@
       <c r="T75" t="s">
         <v>156</v>
       </c>
-      <c r="U75" t="s">
-        <v>149</v>
+      <c r="U75" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V75">
         <v>21</v>
@@ -8635,8 +8643,8 @@
       <c r="T76" t="s">
         <v>164</v>
       </c>
-      <c r="U76" t="s">
-        <v>149</v>
+      <c r="U76" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V76">
         <v>21</v>
@@ -8709,8 +8717,8 @@
       <c r="T77" t="s">
         <v>156</v>
       </c>
-      <c r="U77" t="s">
-        <v>149</v>
+      <c r="U77" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V77">
         <v>24</v>
@@ -8786,8 +8794,8 @@
       <c r="T78" t="s">
         <v>164</v>
       </c>
-      <c r="U78" t="s">
-        <v>149</v>
+      <c r="U78" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V78">
         <v>24</v>
@@ -8860,8 +8868,8 @@
       <c r="T79" t="s">
         <v>156</v>
       </c>
-      <c r="U79" t="s">
-        <v>149</v>
+      <c r="U79" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V79">
         <v>24</v>
@@ -8937,8 +8945,8 @@
       <c r="T80" t="s">
         <v>164</v>
       </c>
-      <c r="U80" t="s">
-        <v>149</v>
+      <c r="U80" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V80">
         <v>24</v>
@@ -9014,7 +9022,7 @@
       <c r="T81" t="s">
         <v>175</v>
       </c>
-      <c r="U81" t="s">
+      <c r="U81" s="4" t="s">
         <v>44</v>
       </c>
       <c r="V81">
@@ -10352,8 +10360,8 @@
       <c r="T99" t="s">
         <v>217</v>
       </c>
-      <c r="U99" t="s">
-        <v>185</v>
+      <c r="U99" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V99">
         <v>21</v>
@@ -10429,8 +10437,8 @@
       <c r="T100" t="s">
         <v>217</v>
       </c>
-      <c r="U100" t="s">
-        <v>185</v>
+      <c r="U100" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V100">
         <v>21</v>
@@ -10506,8 +10514,8 @@
       <c r="T101" t="s">
         <v>217</v>
       </c>
-      <c r="U101" t="s">
-        <v>185</v>
+      <c r="U101" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V101">
         <v>21</v>
@@ -10580,8 +10588,8 @@
       <c r="T102" t="s">
         <v>43</v>
       </c>
-      <c r="U102" t="s">
-        <v>185</v>
+      <c r="U102" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V102" s="1">
         <v>44125</v>
@@ -10648,8 +10656,8 @@
       <c r="T103" t="s">
         <v>43</v>
       </c>
-      <c r="U103" t="s">
-        <v>185</v>
+      <c r="U103" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V103" s="1">
         <v>44125</v>
@@ -10716,8 +10724,8 @@
       <c r="T104" t="s">
         <v>43</v>
       </c>
-      <c r="U104" t="s">
-        <v>185</v>
+      <c r="U104" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V104" s="1">
         <v>44125</v>
@@ -10784,8 +10792,8 @@
       <c r="T105" t="s">
         <v>43</v>
       </c>
-      <c r="U105" t="s">
-        <v>185</v>
+      <c r="U105" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V105" s="1">
         <v>44125</v>
@@ -10852,8 +10860,8 @@
       <c r="T106" t="s">
         <v>43</v>
       </c>
-      <c r="U106" t="s">
-        <v>185</v>
+      <c r="U106" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V106" s="1">
         <v>44125</v>
@@ -10920,8 +10928,8 @@
       <c r="T107" t="s">
         <v>43</v>
       </c>
-      <c r="U107" t="s">
-        <v>185</v>
+      <c r="U107" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V107" s="1">
         <v>44125</v>
@@ -10988,8 +10996,8 @@
       <c r="T108" t="s">
         <v>43</v>
       </c>
-      <c r="U108" t="s">
-        <v>185</v>
+      <c r="U108" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V108" s="1">
         <v>44125</v>
@@ -11053,8 +11061,8 @@
       <c r="T109" t="s">
         <v>43</v>
       </c>
-      <c r="U109" t="s">
-        <v>185</v>
+      <c r="U109" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V109" s="1">
         <v>44125</v>
@@ -11118,8 +11126,8 @@
       <c r="T110" t="s">
         <v>43</v>
       </c>
-      <c r="U110" t="s">
-        <v>185</v>
+      <c r="U110" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V110" s="1">
         <v>44125</v>
@@ -11186,8 +11194,8 @@
       <c r="T111" t="s">
         <v>43</v>
       </c>
-      <c r="U111" t="s">
-        <v>185</v>
+      <c r="U111" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V111" s="1">
         <v>44125</v>
@@ -11254,8 +11262,8 @@
       <c r="T112" t="s">
         <v>43</v>
       </c>
-      <c r="U112" t="s">
-        <v>185</v>
+      <c r="U112" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V112" s="1">
         <v>44125</v>
@@ -11322,8 +11330,8 @@
       <c r="T113" t="s">
         <v>43</v>
       </c>
-      <c r="U113" t="s">
-        <v>185</v>
+      <c r="U113" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V113" s="1">
         <v>44125</v>
@@ -11390,8 +11398,8 @@
       <c r="T114" t="s">
         <v>43</v>
       </c>
-      <c r="U114" t="s">
-        <v>185</v>
+      <c r="U114" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V114" s="1">
         <v>44125</v>
@@ -11458,8 +11466,8 @@
       <c r="T115" t="s">
         <v>43</v>
       </c>
-      <c r="U115" t="s">
-        <v>185</v>
+      <c r="U115" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V115" s="1">
         <v>44125</v>
@@ -11526,8 +11534,8 @@
       <c r="T116" t="s">
         <v>43</v>
       </c>
-      <c r="U116" t="s">
-        <v>185</v>
+      <c r="U116" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V116" s="1">
         <v>44125</v>
@@ -11594,8 +11602,8 @@
       <c r="T117" t="s">
         <v>43</v>
       </c>
-      <c r="U117" t="s">
-        <v>185</v>
+      <c r="U117" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V117" s="1">
         <v>44125</v>
@@ -11662,8 +11670,8 @@
       <c r="T118" t="s">
         <v>43</v>
       </c>
-      <c r="U118" t="s">
-        <v>185</v>
+      <c r="U118" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V118" s="1">
         <v>44125</v>
@@ -11730,8 +11738,8 @@
       <c r="T119" t="s">
         <v>43</v>
       </c>
-      <c r="U119" t="s">
-        <v>185</v>
+      <c r="U119" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V119" s="1">
         <v>44125</v>
@@ -11798,8 +11806,8 @@
       <c r="T120" t="s">
         <v>43</v>
       </c>
-      <c r="U120" t="s">
-        <v>185</v>
+      <c r="U120" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V120" s="1">
         <v>44125</v>
@@ -11863,8 +11871,8 @@
       <c r="T121" t="s">
         <v>43</v>
       </c>
-      <c r="U121" t="s">
-        <v>185</v>
+      <c r="U121" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V121" s="1">
         <v>44125</v>
@@ -11928,8 +11936,8 @@
       <c r="T122" t="s">
         <v>43</v>
       </c>
-      <c r="U122" t="s">
-        <v>185</v>
+      <c r="U122" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V122" s="1">
         <v>44125</v>
@@ -11996,8 +12004,8 @@
       <c r="T123" t="s">
         <v>43</v>
       </c>
-      <c r="U123" t="s">
-        <v>185</v>
+      <c r="U123" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V123" s="1">
         <v>44125</v>
@@ -12064,8 +12072,8 @@
       <c r="T124" t="s">
         <v>43</v>
       </c>
-      <c r="U124" t="s">
-        <v>185</v>
+      <c r="U124" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V124" s="1">
         <v>44125</v>
@@ -12132,8 +12140,8 @@
       <c r="T125" t="s">
         <v>43</v>
       </c>
-      <c r="U125" t="s">
-        <v>185</v>
+      <c r="U125" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V125" s="1">
         <v>44125</v>
@@ -12200,8 +12208,8 @@
       <c r="T126" t="s">
         <v>217</v>
       </c>
-      <c r="U126" t="s">
-        <v>185</v>
+      <c r="U126" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V126">
         <v>30</v>
@@ -12274,8 +12282,8 @@
       <c r="T127" t="s">
         <v>217</v>
       </c>
-      <c r="U127" t="s">
-        <v>185</v>
+      <c r="U127" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V127">
         <v>30</v>
@@ -12348,8 +12356,8 @@
       <c r="T128" t="s">
         <v>217</v>
       </c>
-      <c r="U128" t="s">
-        <v>185</v>
+      <c r="U128" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V128">
         <v>30</v>
@@ -12422,8 +12430,8 @@
       <c r="T129" t="s">
         <v>217</v>
       </c>
-      <c r="U129" t="s">
-        <v>185</v>
+      <c r="U129" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V129">
         <v>30</v>
@@ -12499,8 +12507,8 @@
       <c r="T130" t="s">
         <v>43</v>
       </c>
-      <c r="U130" t="s">
-        <v>185</v>
+      <c r="U130" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA130">
         <v>1</v>
@@ -12564,8 +12572,8 @@
       <c r="T131" t="s">
         <v>43</v>
       </c>
-      <c r="U131" t="s">
-        <v>185</v>
+      <c r="U131" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA131">
         <v>1</v>
@@ -12629,8 +12637,8 @@
       <c r="T132" t="s">
         <v>43</v>
       </c>
-      <c r="U132" t="s">
-        <v>185</v>
+      <c r="U132" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA132">
         <v>1</v>
@@ -12694,8 +12702,8 @@
       <c r="T133" t="s">
         <v>43</v>
       </c>
-      <c r="U133" t="s">
-        <v>185</v>
+      <c r="U133" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA133">
         <v>1</v>
@@ -12759,8 +12767,8 @@
       <c r="T134" t="s">
         <v>43</v>
       </c>
-      <c r="U134" t="s">
-        <v>185</v>
+      <c r="U134" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA134">
         <v>1</v>
@@ -12824,8 +12832,8 @@
       <c r="T135" t="s">
         <v>43</v>
       </c>
-      <c r="U135" t="s">
-        <v>185</v>
+      <c r="U135" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="AA135">
         <v>1</v>
@@ -12889,8 +12897,8 @@
       <c r="T136" t="s">
         <v>43</v>
       </c>
-      <c r="U136" t="s">
-        <v>185</v>
+      <c r="U136" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X136">
         <v>3</v>
@@ -12966,8 +12974,8 @@
       <c r="T137" t="s">
         <v>43</v>
       </c>
-      <c r="U137" t="s">
-        <v>185</v>
+      <c r="U137" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X137">
         <v>3</v>
@@ -13043,8 +13051,8 @@
       <c r="T138" t="s">
         <v>43</v>
       </c>
-      <c r="U138" t="s">
-        <v>185</v>
+      <c r="U138" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X138">
         <v>3</v>
@@ -13120,8 +13128,8 @@
       <c r="T139" t="s">
         <v>43</v>
       </c>
-      <c r="U139" t="s">
-        <v>185</v>
+      <c r="U139" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X139">
         <v>3</v>
@@ -13197,8 +13205,8 @@
       <c r="T140" t="s">
         <v>43</v>
       </c>
-      <c r="U140" t="s">
-        <v>185</v>
+      <c r="U140" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X140">
         <v>3</v>
@@ -13274,8 +13282,8 @@
       <c r="T141" t="s">
         <v>43</v>
       </c>
-      <c r="U141" t="s">
-        <v>185</v>
+      <c r="U141" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X141">
         <v>3</v>
@@ -13351,8 +13359,8 @@
       <c r="T142" t="s">
         <v>43</v>
       </c>
-      <c r="U142" t="s">
-        <v>185</v>
+      <c r="U142" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X142">
         <v>3</v>
@@ -13428,8 +13436,8 @@
       <c r="T143" t="s">
         <v>43</v>
       </c>
-      <c r="U143" t="s">
-        <v>185</v>
+      <c r="U143" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X143">
         <v>3</v>
@@ -13505,8 +13513,8 @@
       <c r="T144" t="s">
         <v>43</v>
       </c>
-      <c r="U144" t="s">
-        <v>185</v>
+      <c r="U144" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X144">
         <v>3</v>
@@ -13582,8 +13590,8 @@
       <c r="T145" t="s">
         <v>43</v>
       </c>
-      <c r="U145" t="s">
-        <v>185</v>
+      <c r="U145" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X145">
         <v>3</v>
@@ -13659,8 +13667,8 @@
       <c r="T146" t="s">
         <v>43</v>
       </c>
-      <c r="U146" t="s">
-        <v>185</v>
+      <c r="U146" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X146">
         <v>3</v>
@@ -13736,8 +13744,8 @@
       <c r="T147" t="s">
         <v>43</v>
       </c>
-      <c r="U147" t="s">
-        <v>185</v>
+      <c r="U147" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="X147">
         <v>3</v>
@@ -13813,8 +13821,8 @@
       <c r="T148" t="s">
         <v>43</v>
       </c>
-      <c r="U148" t="s">
-        <v>185</v>
+      <c r="U148" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V148" t="s">
         <v>295</v>
@@ -13896,8 +13904,8 @@
       <c r="T149" t="s">
         <v>43</v>
       </c>
-      <c r="U149" t="s">
-        <v>185</v>
+      <c r="U149" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V149" t="s">
         <v>295</v>
@@ -13979,8 +13987,8 @@
       <c r="T150" t="s">
         <v>43</v>
       </c>
-      <c r="U150" t="s">
-        <v>185</v>
+      <c r="U150" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V150" t="s">
         <v>295</v>
@@ -15115,7 +15123,7 @@
         <v>331</v>
       </c>
       <c r="AE164" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -15165,7 +15173,7 @@
         <v>43</v>
       </c>
       <c r="U165" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y165">
         <v>24</v>
@@ -15183,7 +15191,7 @@
         <v>46</v>
       </c>
       <c r="AD165" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
@@ -15209,7 +15217,7 @@
         <v>36</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K166" t="s">
         <v>54</v>
@@ -15233,7 +15241,7 @@
         <v>43</v>
       </c>
       <c r="U166" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y166">
         <v>24</v>
@@ -15251,7 +15259,7 @@
         <v>46</v>
       </c>
       <c r="AD166" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167" spans="2:31" x14ac:dyDescent="0.2">
@@ -15265,7 +15273,7 @@
         <v>32</v>
       </c>
       <c r="E167" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G167" t="s">
         <v>333</v>
@@ -15319,7 +15327,7 @@
         <v>46</v>
       </c>
       <c r="AD167" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="2:31" x14ac:dyDescent="0.2">
@@ -15354,7 +15362,7 @@
         <v>10</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q168" t="s">
         <v>41</v>
@@ -15384,7 +15392,7 @@
         <v>46</v>
       </c>
       <c r="AD168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="2:31" x14ac:dyDescent="0.2">
@@ -15426,7 +15434,7 @@
         <v>23.1</v>
       </c>
       <c r="P169" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q169" t="s">
         <v>41</v>
@@ -15507,7 +15515,7 @@
         <v>23.1</v>
       </c>
       <c r="P170" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q170" t="s">
         <v>41</v>
@@ -15572,7 +15580,7 @@
         <v>355</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K171" t="s">
         <v>54</v>
@@ -15617,7 +15625,7 @@
         <v>46</v>
       </c>
       <c r="AD171" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="172" spans="2:31" x14ac:dyDescent="0.2">
@@ -15643,7 +15651,7 @@
         <v>355</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K172" t="s">
         <v>54</v>
@@ -15688,7 +15696,7 @@
         <v>46</v>
       </c>
       <c r="AD172" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="2:31" x14ac:dyDescent="0.2">
@@ -15727,7 +15735,7 @@
         <v>37</v>
       </c>
       <c r="N173" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O173">
         <v>26.7</v>
@@ -15745,7 +15753,7 @@
         <v>43</v>
       </c>
       <c r="U173" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y173">
         <v>24</v>
@@ -15763,7 +15771,7 @@
         <v>46</v>
       </c>
       <c r="AD173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="2:31" x14ac:dyDescent="0.2">
@@ -15802,7 +15810,7 @@
         <v>37</v>
       </c>
       <c r="N174" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O174">
         <v>26.7</v>
@@ -15820,7 +15828,7 @@
         <v>43</v>
       </c>
       <c r="U174" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y174">
         <v>24</v>
@@ -15838,7 +15846,7 @@
         <v>46</v>
       </c>
       <c r="AD174" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="2:31" x14ac:dyDescent="0.2">
@@ -15877,7 +15885,7 @@
         <v>37</v>
       </c>
       <c r="N175" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O175">
         <v>26.7</v>
@@ -15895,7 +15903,7 @@
         <v>43</v>
       </c>
       <c r="U175" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y175">
         <v>24</v>
@@ -15913,7 +15921,7 @@
         <v>46</v>
       </c>
       <c r="AD175" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="176" spans="2:31" x14ac:dyDescent="0.2">
@@ -15952,7 +15960,7 @@
         <v>37</v>
       </c>
       <c r="N176" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O176">
         <v>26.7</v>
@@ -15970,7 +15978,7 @@
         <v>43</v>
       </c>
       <c r="U176" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y176">
         <v>24</v>
@@ -15988,7 +15996,7 @@
         <v>46</v>
       </c>
       <c r="AD176" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="2:31" x14ac:dyDescent="0.2">
@@ -16033,7 +16041,7 @@
         <v>39</v>
       </c>
       <c r="P177" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q177" t="s">
         <v>100</v>
@@ -16045,7 +16053,7 @@
         <v>43</v>
       </c>
       <c r="U177" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y177">
         <v>24</v>
@@ -16063,10 +16071,10 @@
         <v>68</v>
       </c>
       <c r="AD177" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE177" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="2:31" x14ac:dyDescent="0.2">
@@ -16089,7 +16097,7 @@
         <v>371</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K178" t="s">
         <v>50</v>
@@ -16113,7 +16121,7 @@
         <v>43</v>
       </c>
       <c r="U178" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V178">
         <v>10</v>
@@ -16140,10 +16148,10 @@
         <v>227</v>
       </c>
       <c r="AD178" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="2:31" x14ac:dyDescent="0.2">
@@ -16166,7 +16174,7 @@
         <v>371</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K179" t="s">
         <v>50</v>
@@ -16190,7 +16198,7 @@
         <v>43</v>
       </c>
       <c r="U179" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V179">
         <v>10</v>
@@ -16217,7 +16225,7 @@
         <v>227</v>
       </c>
       <c r="AD179" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" spans="2:31" x14ac:dyDescent="0.2">
@@ -16240,7 +16248,7 @@
         <v>371</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K180" t="s">
         <v>50</v>
@@ -16264,7 +16272,7 @@
         <v>43</v>
       </c>
       <c r="U180" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V180">
         <v>10</v>
@@ -16291,7 +16299,7 @@
         <v>227</v>
       </c>
       <c r="AD180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="2:31" x14ac:dyDescent="0.2">
@@ -16314,7 +16322,7 @@
         <v>371</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K181" t="s">
         <v>50</v>
@@ -16338,7 +16346,7 @@
         <v>43</v>
       </c>
       <c r="U181" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V181">
         <v>10</v>
@@ -16365,7 +16373,7 @@
         <v>227</v>
       </c>
       <c r="AD181" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="2:31" x14ac:dyDescent="0.2">
@@ -16388,7 +16396,7 @@
         <v>371</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K182" t="s">
         <v>50</v>
@@ -16412,7 +16420,7 @@
         <v>43</v>
       </c>
       <c r="U182" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V182">
         <v>10</v>
@@ -16439,7 +16447,7 @@
         <v>227</v>
       </c>
       <c r="AD182" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="183" spans="2:31" x14ac:dyDescent="0.2">
@@ -16492,7 +16500,7 @@
         <v>43</v>
       </c>
       <c r="U183" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y183">
         <v>24</v>
@@ -16510,7 +16518,7 @@
         <v>68</v>
       </c>
       <c r="AD183" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="2:31" x14ac:dyDescent="0.2">
@@ -16563,7 +16571,7 @@
         <v>43</v>
       </c>
       <c r="U184" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y184">
         <v>24</v>
@@ -16581,7 +16589,7 @@
         <v>68</v>
       </c>
       <c r="AD184" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="185" spans="2:31" x14ac:dyDescent="0.2">
@@ -16634,7 +16642,7 @@
         <v>43</v>
       </c>
       <c r="U185" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y185">
         <v>24</v>
@@ -16652,7 +16660,7 @@
         <v>68</v>
       </c>
       <c r="AD185" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="2:31" x14ac:dyDescent="0.2">
@@ -16688,7 +16696,7 @@
         <v>18</v>
       </c>
       <c r="N186" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q186" t="s">
         <v>41</v>
@@ -16696,8 +16704,11 @@
       <c r="R186" t="s">
         <v>384</v>
       </c>
+      <c r="T186" t="s">
+        <v>43</v>
+      </c>
       <c r="U186" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V186">
         <v>24</v>
@@ -16760,7 +16771,7 @@
         <v>18</v>
       </c>
       <c r="N187" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q187" t="s">
         <v>41</v>
@@ -16768,8 +16779,11 @@
       <c r="R187" t="s">
         <v>384</v>
       </c>
+      <c r="T187" t="s">
+        <v>43</v>
+      </c>
       <c r="U187" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V187" t="s">
         <v>386</v>
@@ -16832,7 +16846,7 @@
         <v>18</v>
       </c>
       <c r="N188" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q188" t="s">
         <v>41</v>
@@ -16840,8 +16854,11 @@
       <c r="R188" t="s">
         <v>384</v>
       </c>
+      <c r="T188" t="s">
+        <v>43</v>
+      </c>
       <c r="U188" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V188" t="s">
         <v>386</v>
@@ -16904,7 +16921,7 @@
         <v>18</v>
       </c>
       <c r="N189" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q189" t="s">
         <v>41</v>
@@ -16912,8 +16929,11 @@
       <c r="R189" t="s">
         <v>384</v>
       </c>
+      <c r="T189" t="s">
+        <v>43</v>
+      </c>
       <c r="U189" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="V189" t="s">
         <v>386</v>
@@ -16971,8 +16991,8 @@
       <c r="Q197" t="s">
         <v>100</v>
       </c>
-      <c r="U197" t="s">
-        <v>185</v>
+      <c r="U197" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y197">
         <v>24</v>
@@ -17021,8 +17041,8 @@
       <c r="Q198" t="s">
         <v>100</v>
       </c>
-      <c r="U198" t="s">
-        <v>185</v>
+      <c r="U198" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y198">
         <v>24</v>
@@ -17071,8 +17091,8 @@
       <c r="Q199" t="s">
         <v>100</v>
       </c>
-      <c r="U199" t="s">
-        <v>185</v>
+      <c r="U199" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y199">
         <v>24</v>
@@ -17121,8 +17141,8 @@
       <c r="Q200" t="s">
         <v>100</v>
       </c>
-      <c r="U200" t="s">
-        <v>185</v>
+      <c r="U200" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y200">
         <v>24</v>
@@ -17189,8 +17209,8 @@
       <c r="Q201" t="s">
         <v>100</v>
       </c>
-      <c r="U201" t="s">
-        <v>185</v>
+      <c r="U201" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y201">
         <v>24</v>
@@ -17257,8 +17277,8 @@
       <c r="Q202" t="s">
         <v>100</v>
       </c>
-      <c r="U202" t="s">
-        <v>185</v>
+      <c r="U202" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y202">
         <v>24</v>
@@ -17325,8 +17345,8 @@
       <c r="Q203" t="s">
         <v>100</v>
       </c>
-      <c r="U203" t="s">
-        <v>185</v>
+      <c r="U203" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y203">
         <v>24</v>
@@ -17393,8 +17413,8 @@
       <c r="Q204" t="s">
         <v>100</v>
       </c>
-      <c r="U204" t="s">
-        <v>185</v>
+      <c r="U204" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y204">
         <v>24</v>
@@ -17481,8 +17501,8 @@
       <c r="R206" t="s">
         <v>315</v>
       </c>
-      <c r="U206" t="s">
-        <v>185</v>
+      <c r="U206" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y206">
         <v>48</v>
@@ -17552,8 +17572,8 @@
       <c r="R207" t="s">
         <v>315</v>
       </c>
-      <c r="U207" t="s">
-        <v>185</v>
+      <c r="U207" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y207">
         <v>48</v>
@@ -17623,8 +17643,8 @@
       <c r="R208" t="s">
         <v>315</v>
       </c>
-      <c r="U208" t="s">
-        <v>185</v>
+      <c r="U208" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y208">
         <v>24</v>
@@ -17694,8 +17714,8 @@
       <c r="R209" t="s">
         <v>315</v>
       </c>
-      <c r="U209" t="s">
-        <v>185</v>
+      <c r="U209" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y209">
         <v>24</v>
@@ -17765,8 +17785,8 @@
       <c r="R210" t="s">
         <v>315</v>
       </c>
-      <c r="U210" t="s">
-        <v>185</v>
+      <c r="U210" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y210">
         <v>24</v>
@@ -17836,8 +17856,8 @@
       <c r="R211" t="s">
         <v>315</v>
       </c>
-      <c r="U211" t="s">
-        <v>185</v>
+      <c r="U211" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y211">
         <v>24</v>
@@ -17907,8 +17927,8 @@
       <c r="R212" t="s">
         <v>315</v>
       </c>
-      <c r="U212" t="s">
-        <v>185</v>
+      <c r="U212" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y212">
         <v>24</v>
@@ -17978,8 +17998,8 @@
       <c r="R213" t="s">
         <v>315</v>
       </c>
-      <c r="U213" t="s">
-        <v>185</v>
+      <c r="U213" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y213">
         <v>24</v>
@@ -18049,8 +18069,8 @@
       <c r="R214" t="s">
         <v>419</v>
       </c>
-      <c r="U214" t="s">
-        <v>185</v>
+      <c r="U214" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V214">
         <v>3</v>
@@ -18129,8 +18149,8 @@
       <c r="R215" t="s">
         <v>419</v>
       </c>
-      <c r="U215" t="s">
-        <v>185</v>
+      <c r="U215" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V215">
         <v>3</v>
@@ -18209,8 +18229,8 @@
       <c r="R216" t="s">
         <v>419</v>
       </c>
-      <c r="U216" t="s">
-        <v>185</v>
+      <c r="U216" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="V216">
         <v>3</v>
@@ -18286,8 +18306,8 @@
       <c r="Q217" t="s">
         <v>100</v>
       </c>
-      <c r="U217" t="s">
-        <v>185</v>
+      <c r="U217" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y217">
         <v>12</v>
@@ -18354,8 +18374,8 @@
       <c r="Q218" t="s">
         <v>100</v>
       </c>
-      <c r="U218" t="s">
-        <v>185</v>
+      <c r="U218" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y218">
         <v>12</v>
@@ -18422,8 +18442,8 @@
       <c r="Q219" t="s">
         <v>100</v>
       </c>
-      <c r="U219" t="s">
-        <v>185</v>
+      <c r="U219" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y219">
         <v>12</v>
@@ -18490,8 +18510,8 @@
       <c r="Q220" t="s">
         <v>100</v>
       </c>
-      <c r="U220" t="s">
-        <v>185</v>
+      <c r="U220" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y220">
         <v>12</v>
@@ -18558,8 +18578,8 @@
       <c r="Q221" t="s">
         <v>100</v>
       </c>
-      <c r="U221" t="s">
-        <v>185</v>
+      <c r="U221" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y221">
         <v>12</v>
@@ -18626,8 +18646,8 @@
       <c r="Q222" t="s">
         <v>100</v>
       </c>
-      <c r="U222" t="s">
-        <v>185</v>
+      <c r="U222" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y222">
         <v>12</v>
@@ -18676,8 +18696,8 @@
       <c r="Q223" t="s">
         <v>100</v>
       </c>
-      <c r="U223" t="s">
-        <v>185</v>
+      <c r="U223" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y223">
         <v>24</v>
@@ -18726,8 +18746,8 @@
       <c r="Q224" t="s">
         <v>100</v>
       </c>
-      <c r="U224" t="s">
-        <v>185</v>
+      <c r="U224" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y224">
         <v>24</v>
@@ -18776,8 +18796,8 @@
       <c r="Q225" t="s">
         <v>100</v>
       </c>
-      <c r="U225" t="s">
-        <v>185</v>
+      <c r="U225" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y225">
         <v>24</v>
@@ -18826,8 +18846,8 @@
       <c r="Q226" t="s">
         <v>100</v>
       </c>
-      <c r="U226" t="s">
-        <v>185</v>
+      <c r="U226" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y226">
         <v>24</v>
@@ -18877,7 +18897,7 @@
         <v>100</v>
       </c>
       <c r="U227" t="s">
-        <v>185</v>
+        <v>513</v>
       </c>
       <c r="Y227">
         <v>24</v>
@@ -19878,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="U240" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:29" x14ac:dyDescent="0.2">
@@ -19895,13 +19915,13 @@
         <v>32</v>
       </c>
       <c r="H241" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M241">
         <v>0</v>
       </c>
       <c r="U241" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:29" x14ac:dyDescent="0.2">
@@ -19918,13 +19938,13 @@
         <v>32</v>
       </c>
       <c r="H242" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M242">
         <v>0</v>
       </c>
       <c r="U242" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:29" x14ac:dyDescent="0.2">
@@ -19944,13 +19964,13 @@
         <v>108</v>
       </c>
       <c r="H243" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M243">
         <v>0</v>
       </c>
       <c r="U243" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:29" x14ac:dyDescent="0.2">
@@ -19967,13 +19987,13 @@
         <v>32</v>
       </c>
       <c r="H244" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M244">
         <v>0</v>
       </c>
       <c r="U244" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:29" x14ac:dyDescent="0.2">
@@ -19993,13 +20013,13 @@
         <v>85</v>
       </c>
       <c r="H245" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M245">
         <v>0</v>
       </c>
       <c r="U245" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.2">
@@ -20019,13 +20039,13 @@
         <v>76</v>
       </c>
       <c r="H246" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M246">
         <v>0</v>
       </c>
       <c r="U246" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.2">
@@ -20042,13 +20062,13 @@
         <v>32</v>
       </c>
       <c r="H247" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M247">
         <v>0</v>
       </c>
       <c r="U247" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.2">
@@ -20065,13 +20085,13 @@
         <v>32</v>
       </c>
       <c r="H248" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M248">
         <v>0</v>
       </c>
       <c r="U248" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.2">
@@ -20088,13 +20108,13 @@
         <v>32</v>
       </c>
       <c r="H249" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M249">
         <v>0</v>
       </c>
       <c r="U249" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.2">
@@ -20105,16 +20125,16 @@
         <v>46</v>
       </c>
       <c r="C250" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D250" t="s">
         <v>90</v>
       </c>
       <c r="E250" t="s">
+        <v>453</v>
+      </c>
+      <c r="H250" t="s">
         <v>454</v>
-      </c>
-      <c r="H250" t="s">
-        <v>455</v>
       </c>
       <c r="M250">
         <v>0</v>
@@ -20158,16 +20178,16 @@
         <v>46</v>
       </c>
       <c r="C251" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D251" t="s">
         <v>90</v>
       </c>
       <c r="E251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H251" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -20211,16 +20231,16 @@
         <v>46</v>
       </c>
       <c r="C252" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D252" t="s">
         <v>90</v>
       </c>
       <c r="E252" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H252" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M252">
         <v>0</v>
@@ -20264,16 +20284,16 @@
         <v>46</v>
       </c>
       <c r="C253" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D253" t="s">
         <v>90</v>
       </c>
       <c r="E253" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H253" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M253">
         <v>0</v>
@@ -20317,16 +20337,16 @@
         <v>46</v>
       </c>
       <c r="C254" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D254" t="s">
         <v>90</v>
       </c>
       <c r="E254" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M254">
         <v>0</v>
@@ -20370,16 +20390,16 @@
         <v>46</v>
       </c>
       <c r="C255" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D255" t="s">
         <v>90</v>
       </c>
       <c r="E255" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H255" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M255">
         <v>0</v>
@@ -20423,16 +20443,16 @@
         <v>46</v>
       </c>
       <c r="C256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D256" t="s">
         <v>90</v>
       </c>
       <c r="E256" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M256">
         <v>0</v>
@@ -20440,8 +20460,8 @@
       <c r="S256" t="s">
         <v>112</v>
       </c>
-      <c r="U256" t="s">
-        <v>443</v>
+      <c r="U256" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V256">
         <v>21</v>
@@ -20476,16 +20496,16 @@
         <v>46</v>
       </c>
       <c r="C257" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D257" t="s">
         <v>90</v>
       </c>
       <c r="E257" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H257" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M257">
         <v>0</v>
@@ -20493,8 +20513,8 @@
       <c r="S257" t="s">
         <v>112</v>
       </c>
-      <c r="U257" t="s">
-        <v>443</v>
+      <c r="U257" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V257">
         <v>21</v>
@@ -20529,16 +20549,16 @@
         <v>46</v>
       </c>
       <c r="C258" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D258" t="s">
         <v>90</v>
       </c>
       <c r="E258" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H258" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -20546,8 +20566,8 @@
       <c r="S258" t="s">
         <v>112</v>
       </c>
-      <c r="U258" t="s">
-        <v>443</v>
+      <c r="U258" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V258">
         <v>21</v>
@@ -20582,16 +20602,16 @@
         <v>46</v>
       </c>
       <c r="C259" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D259" t="s">
         <v>90</v>
       </c>
       <c r="E259" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H259" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -20599,8 +20619,8 @@
       <c r="S259" t="s">
         <v>112</v>
       </c>
-      <c r="U259" t="s">
-        <v>443</v>
+      <c r="U259" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V259">
         <v>21</v>
@@ -20635,16 +20655,16 @@
         <v>46</v>
       </c>
       <c r="C260" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D260" t="s">
         <v>90</v>
       </c>
       <c r="E260" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H260" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -20688,16 +20708,16 @@
         <v>46</v>
       </c>
       <c r="C261" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D261" t="s">
         <v>90</v>
       </c>
       <c r="E261" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H261" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M261">
         <v>0</v>
@@ -20741,16 +20761,16 @@
         <v>46</v>
       </c>
       <c r="C262" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D262" t="s">
         <v>90</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H262" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M262">
         <v>0</v>
@@ -20794,16 +20814,16 @@
         <v>46</v>
       </c>
       <c r="C263" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D263" t="s">
         <v>90</v>
       </c>
       <c r="E263" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H263" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M263">
         <v>0</v>
@@ -20847,16 +20867,16 @@
         <v>46</v>
       </c>
       <c r="C264" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D264" t="s">
         <v>90</v>
       </c>
       <c r="E264" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M264">
         <v>0</v>
@@ -20900,16 +20920,16 @@
         <v>46</v>
       </c>
       <c r="C265" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D265" t="s">
         <v>90</v>
       </c>
       <c r="E265" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H265" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M265">
         <v>0</v>
@@ -20953,16 +20973,16 @@
         <v>46</v>
       </c>
       <c r="C266" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D266" t="s">
         <v>90</v>
       </c>
       <c r="E266" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M266">
         <v>0</v>
@@ -20970,8 +20990,8 @@
       <c r="S266" t="s">
         <v>112</v>
       </c>
-      <c r="U266" t="s">
-        <v>443</v>
+      <c r="U266" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V266">
         <v>21</v>
@@ -21006,16 +21026,16 @@
         <v>46</v>
       </c>
       <c r="C267" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D267" t="s">
         <v>90</v>
       </c>
       <c r="E267" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H267" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M267">
         <v>0</v>
@@ -21023,8 +21043,8 @@
       <c r="S267" t="s">
         <v>112</v>
       </c>
-      <c r="U267" t="s">
-        <v>443</v>
+      <c r="U267" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V267">
         <v>21</v>
@@ -21059,16 +21079,16 @@
         <v>46</v>
       </c>
       <c r="C268" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D268" t="s">
         <v>90</v>
       </c>
       <c r="E268" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H268" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M268">
         <v>0</v>
@@ -21076,8 +21096,8 @@
       <c r="S268" t="s">
         <v>112</v>
       </c>
-      <c r="U268" t="s">
-        <v>443</v>
+      <c r="U268" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V268">
         <v>21</v>
@@ -21112,16 +21132,16 @@
         <v>46</v>
       </c>
       <c r="C269" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D269" t="s">
         <v>90</v>
       </c>
       <c r="E269" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H269" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M269">
         <v>0</v>
@@ -21129,8 +21149,8 @@
       <c r="S269" t="s">
         <v>112</v>
       </c>
-      <c r="U269" t="s">
-        <v>443</v>
+      <c r="U269" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="V269">
         <v>21</v>
@@ -21165,10 +21185,10 @@
         <v>47</v>
       </c>
       <c r="C270" t="s">
+        <v>465</v>
+      </c>
+      <c r="D270" t="s">
         <v>466</v>
-      </c>
-      <c r="D270" t="s">
-        <v>467</v>
       </c>
       <c r="E270" t="s">
         <v>60</v>
@@ -21180,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="Q270" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S270" t="s">
         <v>112</v>
@@ -21197,10 +21217,10 @@
         <v>47</v>
       </c>
       <c r="C271" t="s">
+        <v>465</v>
+      </c>
+      <c r="D271" t="s">
         <v>466</v>
-      </c>
-      <c r="D271" t="s">
-        <v>467</v>
       </c>
       <c r="E271" t="s">
         <v>60</v>
@@ -21212,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="Q271" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R271" t="s">
         <v>101</v>
@@ -21232,22 +21252,22 @@
         <v>48</v>
       </c>
       <c r="C272" t="s">
+        <v>468</v>
+      </c>
+      <c r="D272" t="s">
         <v>469</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>470</v>
       </c>
-      <c r="E272" t="s">
+      <c r="H272" t="s">
         <v>471</v>
-      </c>
-      <c r="H272" t="s">
-        <v>472</v>
       </c>
       <c r="M272">
         <v>0</v>
       </c>
       <c r="Q272" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S272" t="s">
         <v>102</v>
@@ -21264,22 +21284,22 @@
         <v>48</v>
       </c>
       <c r="C273" t="s">
+        <v>468</v>
+      </c>
+      <c r="D273" t="s">
         <v>469</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>470</v>
       </c>
-      <c r="E273" t="s">
-        <v>471</v>
-      </c>
       <c r="H273" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M273">
         <v>0</v>
       </c>
       <c r="Q273" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S273" t="s">
         <v>102</v>
@@ -21296,22 +21316,22 @@
         <v>48</v>
       </c>
       <c r="C274" t="s">
+        <v>468</v>
+      </c>
+      <c r="D274" t="s">
         <v>469</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>470</v>
       </c>
-      <c r="E274" t="s">
-        <v>471</v>
-      </c>
       <c r="H274" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M274">
         <v>0</v>
       </c>
       <c r="Q274" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S274" t="s">
         <v>102</v>
@@ -21328,10 +21348,10 @@
         <v>49</v>
       </c>
       <c r="C275" t="s">
+        <v>475</v>
+      </c>
+      <c r="D275" t="s">
         <v>476</v>
-      </c>
-      <c r="D275" t="s">
-        <v>477</v>
       </c>
       <c r="E275" t="s">
         <v>436</v>
@@ -21340,7 +21360,7 @@
         <v>76</v>
       </c>
       <c r="H275" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I275" t="s">
         <v>237</v>
@@ -21358,19 +21378,19 @@
         <v>0.5</v>
       </c>
       <c r="N275" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O275" t="s">
         <v>127</v>
       </c>
       <c r="Q275" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R275" t="s">
         <v>42</v>
       </c>
       <c r="S275" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U275" t="s">
         <v>44</v>
@@ -21400,7 +21420,7 @@
         <v>46</v>
       </c>
       <c r="AD275" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
@@ -21411,10 +21431,10 @@
         <v>49</v>
       </c>
       <c r="C276" t="s">
+        <v>475</v>
+      </c>
+      <c r="D276" t="s">
         <v>476</v>
-      </c>
-      <c r="D276" t="s">
-        <v>477</v>
       </c>
       <c r="E276" t="s">
         <v>436</v>
@@ -21423,7 +21443,7 @@
         <v>76</v>
       </c>
       <c r="H276" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I276" t="s">
         <v>237</v>
@@ -21441,19 +21461,19 @@
         <v>0.5</v>
       </c>
       <c r="N276" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O276" t="s">
         <v>127</v>
       </c>
       <c r="Q276" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R276" t="s">
         <v>42</v>
       </c>
       <c r="S276" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U276" t="s">
         <v>44</v>
@@ -21491,10 +21511,10 @@
         <v>49</v>
       </c>
       <c r="C277" t="s">
+        <v>475</v>
+      </c>
+      <c r="D277" t="s">
         <v>476</v>
-      </c>
-      <c r="D277" t="s">
-        <v>477</v>
       </c>
       <c r="E277" t="s">
         <v>436</v>
@@ -21503,7 +21523,7 @@
         <v>76</v>
       </c>
       <c r="H277" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I277" t="s">
         <v>237</v>
@@ -21521,19 +21541,19 @@
         <v>0.5</v>
       </c>
       <c r="N277" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O277" t="s">
         <v>127</v>
       </c>
       <c r="Q277" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R277" t="s">
         <v>42</v>
       </c>
       <c r="S277" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U277" t="s">
         <v>44</v>
@@ -21571,10 +21591,10 @@
         <v>49</v>
       </c>
       <c r="C278" t="s">
+        <v>475</v>
+      </c>
+      <c r="D278" t="s">
         <v>476</v>
-      </c>
-      <c r="D278" t="s">
-        <v>477</v>
       </c>
       <c r="E278" t="s">
         <v>436</v>
@@ -21583,7 +21603,7 @@
         <v>108</v>
       </c>
       <c r="H278" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I278" t="s">
         <v>116</v>
@@ -21601,19 +21621,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N278" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O278" t="s">
         <v>127</v>
       </c>
       <c r="Q278" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R278" t="s">
         <v>42</v>
       </c>
       <c r="S278" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U278" t="s">
         <v>44</v>
@@ -21651,10 +21671,10 @@
         <v>49</v>
       </c>
       <c r="C279" t="s">
+        <v>475</v>
+      </c>
+      <c r="D279" t="s">
         <v>476</v>
-      </c>
-      <c r="D279" t="s">
-        <v>477</v>
       </c>
       <c r="E279" t="s">
         <v>436</v>
@@ -21663,7 +21683,7 @@
         <v>108</v>
       </c>
       <c r="H279" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I279" t="s">
         <v>116</v>
@@ -21681,19 +21701,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N279" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O279" t="s">
         <v>127</v>
       </c>
       <c r="Q279" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R279" t="s">
         <v>42</v>
       </c>
       <c r="S279" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U279" t="s">
         <v>44</v>
@@ -21731,10 +21751,10 @@
         <v>49</v>
       </c>
       <c r="C280" t="s">
+        <v>475</v>
+      </c>
+      <c r="D280" t="s">
         <v>476</v>
-      </c>
-      <c r="D280" t="s">
-        <v>477</v>
       </c>
       <c r="E280" t="s">
         <v>436</v>
@@ -21743,7 +21763,7 @@
         <v>108</v>
       </c>
       <c r="H280" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I280" t="s">
         <v>116</v>
@@ -21761,19 +21781,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N280" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O280" t="s">
         <v>127</v>
       </c>
       <c r="Q280" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R280" t="s">
         <v>42</v>
       </c>
       <c r="S280" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U280" t="s">
         <v>44</v>
@@ -21811,10 +21831,10 @@
         <v>49</v>
       </c>
       <c r="C281" t="s">
+        <v>475</v>
+      </c>
+      <c r="D281" t="s">
         <v>476</v>
-      </c>
-      <c r="D281" t="s">
-        <v>477</v>
       </c>
       <c r="E281" t="s">
         <v>436</v>
@@ -21841,19 +21861,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N281" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O281" t="s">
         <v>127</v>
       </c>
       <c r="Q281" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R281" t="s">
         <v>42</v>
       </c>
       <c r="S281" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U281" t="s">
         <v>44</v>
@@ -21891,10 +21911,10 @@
         <v>49</v>
       </c>
       <c r="C282" t="s">
+        <v>475</v>
+      </c>
+      <c r="D282" t="s">
         <v>476</v>
-      </c>
-      <c r="D282" t="s">
-        <v>477</v>
       </c>
       <c r="E282" t="s">
         <v>436</v>
@@ -21921,19 +21941,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N282" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O282" t="s">
         <v>127</v>
       </c>
       <c r="Q282" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R282" t="s">
         <v>42</v>
       </c>
       <c r="S282" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U282" t="s">
         <v>44</v>
@@ -21971,10 +21991,10 @@
         <v>49</v>
       </c>
       <c r="C283" t="s">
+        <v>475</v>
+      </c>
+      <c r="D283" t="s">
         <v>476</v>
-      </c>
-      <c r="D283" t="s">
-        <v>477</v>
       </c>
       <c r="E283" t="s">
         <v>436</v>
@@ -22001,19 +22021,19 @@
         <v>0.180416667</v>
       </c>
       <c r="N283" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O283" t="s">
         <v>127</v>
       </c>
       <c r="Q283" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R283" t="s">
         <v>42</v>
       </c>
       <c r="S283" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U283" t="s">
         <v>44</v>
@@ -22051,13 +22071,13 @@
         <v>50</v>
       </c>
       <c r="C284" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D284" t="s">
         <v>32</v>
       </c>
       <c r="E284" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G284" t="s">
         <v>85</v>
@@ -22087,7 +22107,7 @@
         <v>88</v>
       </c>
       <c r="Q284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S284" t="s">
         <v>439</v>
@@ -22099,7 +22119,7 @@
         <v>400</v>
       </c>
       <c r="W284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X284">
         <v>16.667000000000002</v>
@@ -22128,13 +22148,13 @@
         <v>50</v>
       </c>
       <c r="C285" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D285" t="s">
         <v>32</v>
       </c>
       <c r="E285" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G285" t="s">
         <v>85</v>
@@ -22164,7 +22184,7 @@
         <v>88</v>
       </c>
       <c r="Q285" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S285" t="s">
         <v>112</v>
@@ -22176,7 +22196,7 @@
         <v>400</v>
       </c>
       <c r="W285" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X285">
         <v>16.667000000000002</v>
@@ -22193,13 +22213,13 @@
         <v>50</v>
       </c>
       <c r="C286" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D286" t="s">
         <v>32</v>
       </c>
       <c r="E286" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G286" t="s">
         <v>85</v>
@@ -22229,10 +22249,10 @@
         <v>88</v>
       </c>
       <c r="Q286" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S286" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U286" t="s">
         <v>44</v>
@@ -22241,7 +22261,7 @@
         <v>400</v>
       </c>
       <c r="W286" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X286">
         <v>16.667000000000002</v>
@@ -22250,7 +22270,7 @@
         <v>1</v>
       </c>
       <c r="Z286" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA286">
         <v>4.1666666999999998E-2</v>
@@ -22270,13 +22290,13 @@
         <v>50</v>
       </c>
       <c r="C287" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D287" t="s">
         <v>32</v>
       </c>
       <c r="E287" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G287" t="s">
         <v>85</v>
@@ -22306,7 +22326,7 @@
         <v>88</v>
       </c>
       <c r="Q287" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S287" t="s">
         <v>439</v>
@@ -22318,7 +22338,7 @@
         <v>400</v>
       </c>
       <c r="W287" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X287">
         <v>16.667000000000002</v>
@@ -22347,13 +22367,13 @@
         <v>50</v>
       </c>
       <c r="C288" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D288" t="s">
         <v>32</v>
       </c>
       <c r="E288" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G288" t="s">
         <v>85</v>
@@ -22383,7 +22403,7 @@
         <v>88</v>
       </c>
       <c r="Q288" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S288" t="s">
         <v>112</v>
@@ -22395,7 +22415,7 @@
         <v>400</v>
       </c>
       <c r="W288" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X288">
         <v>16.667000000000002</v>
@@ -22412,13 +22432,13 @@
         <v>50</v>
       </c>
       <c r="C289" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D289" t="s">
         <v>32</v>
       </c>
       <c r="E289" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G289" t="s">
         <v>85</v>
@@ -22448,10 +22468,10 @@
         <v>88</v>
       </c>
       <c r="Q289" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S289" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U289" t="s">
         <v>44</v>
@@ -22460,7 +22480,7 @@
         <v>400</v>
       </c>
       <c r="W289" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X289">
         <v>16.667000000000002</v>
@@ -22469,7 +22489,7 @@
         <v>1</v>
       </c>
       <c r="Z289" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA289">
         <v>4.1666666999999998E-2</v>
@@ -22489,13 +22509,13 @@
         <v>50</v>
       </c>
       <c r="C290" t="s">
+        <v>484</v>
+      </c>
+      <c r="D290" t="s">
+        <v>490</v>
+      </c>
+      <c r="E290" t="s">
         <v>485</v>
-      </c>
-      <c r="D290" t="s">
-        <v>491</v>
-      </c>
-      <c r="E290" t="s">
-        <v>486</v>
       </c>
       <c r="G290" t="s">
         <v>85</v>
@@ -22525,7 +22545,7 @@
         <v>88</v>
       </c>
       <c r="Q290" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S290" t="s">
         <v>439</v>
@@ -22537,7 +22557,7 @@
         <v>400</v>
       </c>
       <c r="W290" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X290">
         <v>16.667000000000002</v>
@@ -22546,7 +22566,7 @@
         <v>1</v>
       </c>
       <c r="Z290" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA290">
         <v>4.1666666999999998E-2</v>
@@ -22566,13 +22586,13 @@
         <v>50</v>
       </c>
       <c r="C291" t="s">
+        <v>484</v>
+      </c>
+      <c r="D291" t="s">
+        <v>490</v>
+      </c>
+      <c r="E291" t="s">
         <v>485</v>
-      </c>
-      <c r="D291" t="s">
-        <v>491</v>
-      </c>
-      <c r="E291" t="s">
-        <v>486</v>
       </c>
       <c r="G291" t="s">
         <v>85</v>
@@ -22602,7 +22622,7 @@
         <v>88</v>
       </c>
       <c r="Q291" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S291" t="s">
         <v>112</v>
@@ -22614,7 +22634,7 @@
         <v>400</v>
       </c>
       <c r="W291" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X291">
         <v>16.667000000000002</v>
@@ -22623,7 +22643,7 @@
         <v>1</v>
       </c>
       <c r="Z291" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA291">
         <v>4.1666666999999998E-2</v>
@@ -22643,13 +22663,13 @@
         <v>50</v>
       </c>
       <c r="C292" t="s">
+        <v>484</v>
+      </c>
+      <c r="D292" t="s">
+        <v>490</v>
+      </c>
+      <c r="E292" t="s">
         <v>485</v>
-      </c>
-      <c r="D292" t="s">
-        <v>491</v>
-      </c>
-      <c r="E292" t="s">
-        <v>486</v>
       </c>
       <c r="G292" t="s">
         <v>85</v>
@@ -22679,10 +22699,10 @@
         <v>88</v>
       </c>
       <c r="Q292" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S292" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U292" t="s">
         <v>44</v>
@@ -22691,7 +22711,7 @@
         <v>400</v>
       </c>
       <c r="W292" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X292">
         <v>16.667000000000002</v>
@@ -22700,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="Z292" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA292">
         <v>4.1666666999999998E-2</v>
@@ -22720,13 +22740,13 @@
         <v>50</v>
       </c>
       <c r="C293" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D293" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E293" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G293" t="s">
         <v>85</v>
@@ -22756,7 +22776,7 @@
         <v>88</v>
       </c>
       <c r="Q293" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S293" t="s">
         <v>439</v>
@@ -22768,7 +22788,7 @@
         <v>400</v>
       </c>
       <c r="W293" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X293">
         <v>16.667000000000002</v>
@@ -22777,7 +22797,7 @@
         <v>1</v>
       </c>
       <c r="Z293" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA293">
         <v>4.1666666999999998E-2</v>
@@ -22797,13 +22817,13 @@
         <v>50</v>
       </c>
       <c r="C294" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D294" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E294" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G294" t="s">
         <v>85</v>
@@ -22833,7 +22853,7 @@
         <v>88</v>
       </c>
       <c r="Q294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S294" t="s">
         <v>112</v>
@@ -22845,7 +22865,7 @@
         <v>400</v>
       </c>
       <c r="W294" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X294">
         <v>16.667000000000002</v>
@@ -22854,7 +22874,7 @@
         <v>1</v>
       </c>
       <c r="Z294" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA294">
         <v>4.1666666999999998E-2</v>
@@ -22874,13 +22894,13 @@
         <v>50</v>
       </c>
       <c r="C295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D295" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E295" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G295" t="s">
         <v>85</v>
@@ -22910,10 +22930,10 @@
         <v>88</v>
       </c>
       <c r="Q295" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S295" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U295" t="s">
         <v>44</v>
@@ -22922,7 +22942,7 @@
         <v>400</v>
       </c>
       <c r="W295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X295">
         <v>16.667000000000002</v>
@@ -22931,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="Z295" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA295">
         <v>4.1666666999999998E-2</v>
@@ -22951,13 +22971,13 @@
         <v>51</v>
       </c>
       <c r="C296" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D296" t="s">
         <v>90</v>
       </c>
       <c r="H296" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M296">
         <v>0</v>
@@ -22974,7 +22994,7 @@
         <v>52</v>
       </c>
       <c r="C297" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D297" t="s">
         <v>32</v>
@@ -22983,7 +23003,7 @@
         <v>165</v>
       </c>
       <c r="H297" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I297" t="s">
         <v>36</v>
@@ -23007,7 +23027,7 @@
         <v>39</v>
       </c>
       <c r="Q297" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U297" t="s">
         <v>44</v>
@@ -23016,7 +23036,7 @@
         <v>1</v>
       </c>
       <c r="W297" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X297">
         <v>30</v>
@@ -23037,7 +23057,7 @@
         <v>68</v>
       </c>
       <c r="AD297" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.2">
@@ -23048,7 +23068,7 @@
         <v>52</v>
       </c>
       <c r="C298" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D298" t="s">
         <v>32</v>
@@ -23057,7 +23077,7 @@
         <v>436</v>
       </c>
       <c r="H298" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I298" t="s">
         <v>36</v>
@@ -23081,7 +23101,7 @@
         <v>39</v>
       </c>
       <c r="Q298" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U298" t="s">
         <v>44</v>
@@ -23090,7 +23110,7 @@
         <v>1</v>
       </c>
       <c r="W298" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X298">
         <v>30</v>
@@ -23111,7 +23131,7 @@
         <v>68</v>
       </c>
       <c r="AD298" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.2">
@@ -23122,13 +23142,13 @@
         <v>53</v>
       </c>
       <c r="C299" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D299" t="s">
         <v>90</v>
       </c>
       <c r="H299" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
@@ -23139,7 +23159,7 @@
         <v>54</v>
       </c>
       <c r="C300" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
